--- a/memory_card.xlsx
+++ b/memory_card.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\temp\memory_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F54815-9F78-4B36-B659-F5546A69A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D46A7B-D343-4999-A3A1-9C1C281A0F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Вопросы</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>variant</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
   </si>
 </sst>
 </file>
@@ -100,9 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,50 +403,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="16384" width="8.7109375" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6z8rhdm+70E8a+BsbgVOkEYERT6IEKHjwDDoI5EaNhxidB7gAMpMJC0qyPfqHqVx6OXVpGXAjv402dJK/BG2QA==" saltValue="4+CQA33/5k7S4xiXsko7Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/memory_card.xlsx
+++ b/memory_card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\temp\memory_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D46A7B-D343-4999-A3A1-9C1C281A0F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1446A-965E-4153-B56D-4ED98FDD138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Вопросы</t>
   </si>
@@ -54,22 +54,28 @@
     <t>variation</t>
   </si>
   <si>
-    <t>changing</t>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q1</t>
   </si>
   <si>
     <t>variant</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q3</t>
+    <t>Какого цвета глаза у мамы?</t>
+  </si>
+  <si>
+    <t>карие</t>
+  </si>
+  <si>
+    <t>голубые</t>
+  </si>
+  <si>
+    <t>серые</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -120,6 +126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,27 +422,24 @@
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -443,50 +449,38 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -494,15 +488,30 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6z8rhdm+70E8a+BsbgVOkEYERT6IEKHjwDDoI5EaNhxidB7gAMpMJC0qyPfqHqVx6OXVpGXAjv402dJK/BG2QA==" saltValue="4+CQA33/5k7S4xiXsko7Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qilSE3rC8l2GRlPHCQPI4WLQ6KedQRHhVMBKSDS+IjClBKQuO0gGsrwXjp32mG9GcHjTf24edlrOinYoSmN6rg==" saltValue="moREft2ib4ScwaLf45UWsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/memory_card.xlsx
+++ b/memory_card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\temp\memory_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1446A-965E-4153-B56D-4ED98FDD138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16DB191-214D-4F10-91CB-220855F05082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +449,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
@@ -463,6 +466,9 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -488,6 +494,9 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
@@ -501,6 +510,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>

--- a/memory_card.xlsx
+++ b/memory_card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\temp\memory_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16DB191-214D-4F10-91CB-220855F05082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5D15E-157E-4550-82C0-E31974B04AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,9 +449,6 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
@@ -466,9 +463,6 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -494,9 +488,6 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
@@ -510,9 +501,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
